--- a/output/only_primer/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_design_result.xlsx
@@ -68,166 +68,166 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTCTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAGACTCTGGACC</t>
+    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
   </si>
   <si>
     <t>Target sequence</t>
@@ -287,31 +287,31 @@
     <t>ccdb_plasmid;primer</t>
   </si>
   <si>
-    <t>CCAGGTCTCAGATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAGACTCTGGACC</t>
+    <t>CCAGGTCTCATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -903,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -963,7 +963,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -983,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1116,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1136,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1156,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1176,7 +1176,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1196,7 +1196,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1236,7 +1236,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1256,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1462,7 @@
         <v>90</v>
       </c>
       <c r="F2">
-        <v>10906</v>
+        <v>10902</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
         <v>95</v>
       </c>
       <c r="F2">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1535,7 +1535,7 @@
         <v>96</v>
       </c>
       <c r="F3">
-        <v>1674</v>
+        <v>1670</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_design_result.xlsx
@@ -68,166 +68,166 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGACTCTGGACC</t>
+    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTCTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACAGAAGAACC</t>
   </si>
   <si>
     <t>Target sequence</t>
@@ -287,31 +287,31 @@
     <t>ccdb_plasmid;primer</t>
   </si>
   <si>
-    <t>CCAGGTCTCATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaACTCTGGACC</t>
+    <t>CCAAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGAACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -903,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1106</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -963,7 +963,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -983,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1058</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1051</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1061</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1116,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1063</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1136,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1156,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1076</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1176,7 +1176,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1059</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1196,7 +1196,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1064</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1236,7 +1236,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1049</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1256,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1462,7 @@
         <v>90</v>
       </c>
       <c r="F2">
-        <v>10902</v>
+        <v>10906</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
         <v>95</v>
       </c>
       <c r="F2">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1535,7 +1535,7 @@
         <v>96</v>
       </c>
       <c r="F3">
-        <v>1670</v>
+        <v>1674</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_design_result.xlsx
@@ -68,166 +68,166 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTCTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACAGAAGAACC</t>
+    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTCTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAAAAAAACAGAAGAACC</t>
   </si>
   <si>
     <t>Target sequence</t>
@@ -287,31 +287,31 @@
     <t>ccdb_plasmid;primer</t>
   </si>
   <si>
-    <t>CCAAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGAACC</t>
+    <t>CCAAGAAGACAAAAAAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTTCTTCTGTTTTTTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAAAAAAACAGAAGAACC</t>
+  </si>
+  <si>
+    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAAAAAAACAGAAGAACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -883,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -903,7 +903,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -923,7 +923,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -943,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -963,7 +963,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -983,7 +983,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1003,7 +1003,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1023,7 +1023,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1055</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1096,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1065</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1116,7 +1116,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1067</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1136,7 +1136,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1052</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1156,7 +1156,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1080</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1176,7 +1176,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1063</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1196,7 +1196,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1068</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1216,7 +1216,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1236,7 +1236,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1053</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1256,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1051</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1462,7 @@
         <v>90</v>
       </c>
       <c r="F2">
-        <v>10906</v>
+        <v>10916</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
         <v>95</v>
       </c>
       <c r="F2">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1535,7 +1535,7 @@
         <v>96</v>
       </c>
       <c r="F3">
-        <v>1674</v>
+        <v>1684</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -68,256 +68,280 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACAT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGCGCACGCCTCATGGATTC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGCCTGCATTTATAAAGTGCTGACCC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTGGTGGTGTCCGAAAACCCGC</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTAAGCTTGGGCCATTCCTGCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTCCACATTGTTCGTGATCGCTTCGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTGGCTGCTGGACAATTCGGGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTGATCCTGCCGGTGAAGCGG</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCGAAGCAAGCGCGTGTAGATGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTCTGCGTGCAGGTCCCTGGTT</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>Target sequence</t>
-  </si>
-  <si>
-    <t>enzymeCutSeq_and_N20</t>
-  </si>
-  <si>
-    <t>CGAGAAGTACACCTTCTCCG</t>
-  </si>
-  <si>
-    <t>AACGCGCACGGAAATAACCG</t>
-  </si>
-  <si>
-    <t>CGTTCGCTTTTAAGTTTTCT</t>
-  </si>
-  <si>
-    <t>GCTGGCGGATTAACACACCG</t>
-  </si>
-  <si>
-    <t>GCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>ACCCTCCGTCTGCAAAGTGG</t>
-  </si>
-  <si>
-    <t>GAAGAATCAGAAGGTGGCTA</t>
-  </si>
-  <si>
-    <t>AGAAGAAGTCAATAAGATTA</t>
-  </si>
-  <si>
-    <t>TTCACGAGAAGTACACCTTCTCCGGTTT</t>
-  </si>
-  <si>
-    <t>TTCAAACGCGCACGGAAATAACCGGTTT</t>
-  </si>
-  <si>
-    <t>TTCACGTTCGCTTTTAAGTTTTCTGTTT</t>
-  </si>
-  <si>
-    <t>TTCAGCTGGCGGATTAACACACCGGTTT</t>
-  </si>
-  <si>
-    <t>TTCAGCTTCCCAGGTTACGCGCAGGTTT</t>
-  </si>
-  <si>
-    <t>TTCAACCCTCCGTCTGCAAAGTGGGTTT</t>
-  </si>
-  <si>
-    <t>TTCAGAAGAATCAGAAGGTGGCTAGTTT</t>
-  </si>
-  <si>
-    <t>TTCAAGAAGAAGTCAATAAGATTAGTTT</t>
+    <t>CCAGGTCTCAATCCTAAAGCCCTGCCCACCGGATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAGCGCCCGGGCATGTACAT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCATCATCGGCGGCCACATGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAACCCAAACCCTGCCCGAAG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGCCCAATGTGGTCCCTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCAACAGCTCCTCCTGGGCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGCAGGACAATAGCGTTACCCTGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTTACCGGACACGCGCAACAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAAGCTTTTAAGTTTTCTCGGTGATCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGAGTTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACTACATGCGATTCTTGGTGCGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaCTACCTATTTGCGCGGTACCACT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTCAAAGTGGTGGTGATGCGCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTAGACTTCTTCTTCGCGCCCAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACCTGAAATTTCCGTCATGCCGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGCGCACGCCTCATGGATTC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCTGCATTTATAAAGTGCTGACCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTGGTGTCCGAAAACCCGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAAGCTTGGGCCATTCCTGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCCACATTGTTCGTGATCGCTTCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGGCTGCTGGACAATTCGGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGATCCTGCCGGTGAAGCGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGAAGCAAGCGCGTGTAGATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGCGTGCAGGTCCCTGGTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAAGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGAGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACAATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttaaCTACCTATTTGCGCGGTACCACTTAATCAGTGAATCAGTGGAAGAATCTCCCGAGTCAACATCCTCTTCACCAGAGACAGCCGGAGCGAGGTCATTTGCCTGCTGTTTGCCCAGTTCAACACCCCATTGGTCGAAGGAGTTGATGTCCCAAATCACGCCCTGAACCATCACGATGTGTTCGTACAAAGCGATCAACGCACCGAGAATAGAAGGGGTAAGTTCCTCCGCCAAAATGGTGGTGGTTGGGCGATTACCTGGCATGACCTTGTGGTTGACCAGCTCAGGTGCGACACCTTCCGCAGCGATCTCTTCAGCGTTCTTACCGAAAGCCAAAACCTTGGTCTGTGCGAAGAAGTTGCTCATCAAAAGGTCATGCATGGTGCGCTCACCGGCAGGAAGATCCTGCTTTGGACGAGCGAAACCAATGAAATCAGCTGGAACAAGGCGAGTGCCCTGGTGGATCAGCTGGAAGAAAGCGTGCTGGCCATTTGTGCCAGGCTCACCCCAGTAAATTTCGCCAGTGCCAGTGGAAACAGGGGAGCCGTCGCGGTGGACTGACTTGCCATTTGATTCCATGGTCAGCTGCTGGAGGTAAGCAGCAAAACGGCTGAGATCCTCGGAATAAGGTAGGACAGCGTGGGTTTCTGCACCATAGAAATCGGAGTACCAGACACCGAGCAGAGCCATCAAGATTGGAACGTTCTCTTCGAACTTGGTGGTGCGGAAGTGTTCATCCATCGCGTGGAATCCACCGAGGAAACGCATGAAGTCGCGAGGGCCGATCACTGCCATGAGGGAAAGACCAACTGCGGAGTCCACGGAGTAACGACCTCCGACCCAGTCCCAGAAGCCGAACATGTTGTCCGTGTCGATACCGAACTCTGCGACCTTTTCAGCATTGGTGGACACTGCGACGAAGTGCTTCGCGACAGCCTCTTCACCGAGCTTCTCTACCAGCCAAGCACGAGCTGCACGAGCGTTGGACAGCGTCTCCTGGGTGGTGAAAGTTTTCGAAGCGATCACGAACAATGTGGAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGGCGCGGTTAAGCTGAGATCGAAAAGCGTGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTCTCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTAGACTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
   </si>
   <si>
     <t>ccdb_plasmid;primer</t>
   </si>
   <si>
-    <t>CCAAGAAGACAAAAAAATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTTCTTCTGTTTTTTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAAAAAAACAGAAGAACC</t>
-  </si>
-  <si>
-    <t>CCAAGAAGACAAAAAAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAAAAAAACAGAAGAACC</t>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1_TM</t>
+  </si>
+  <si>
+    <t>153019_ecoil_ybeL_ins;153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
+  </si>
+  <si>
+    <t>Cgl0006_1176_G_A_sub;Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
+  </si>
+  <si>
+    <t>Cgl0141_cds_del;Cgl0141_cds_del;BA000036.3:153222-155613</t>
+  </si>
+  <si>
+    <t>Cgl0591_-1_Ppgk_promoter_ins;Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
+  </si>
+  <si>
+    <t>Cgl0851_ecoli_pgi_sub;Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
+  </si>
+  <si>
+    <t>Cgl1386_327_18to15_sub;Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
+  </si>
+  <si>
+    <t>Cgl1436_1113_CAA_del;Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
+  </si>
+  <si>
+    <t>Cgl1790_1647_TCC_sub;Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
+  </si>
+  <si>
+    <t>Cgl2342_213_GCA_ins;Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
     <t>TATGGTCAATGTCGCGGGGG</t>
@@ -883,7 +907,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -903,7 +927,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -923,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -943,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>1120</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -963,7 +987,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -983,7 +1007,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1003,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1023,7 +1047,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1065</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1043,7 +1067,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1120,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1075</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1116,7 +1140,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>1077</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1136,7 +1160,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>1062</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1156,7 +1180,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>1090</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1176,7 +1200,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>1073</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1196,7 +1220,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1216,7 +1240,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>1067</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1236,7 +1260,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1256,7 +1280,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -1266,13 +1290,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1280,13 +1304,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1294,13 +1324,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1308,13 +1344,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1322,13 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1336,13 +1384,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1350,13 +1404,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1364,13 +1424,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1378,13 +1444,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1392,13 +1464,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1406,10 +1484,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -1450,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
       <c r="F2">
-        <v>10916</v>
+        <v>10904</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2">
-        <v>517</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1526,16 +1610,16 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3">
-        <v>1684</v>
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -1559,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1570,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>62.3185185163494</v>
@@ -1584,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>62.3185185163494</v>
@@ -1598,10 +1682,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>62.3185185163494</v>
@@ -1612,10 +1696,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>62.3185185163494</v>
@@ -1626,10 +1710,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>62.3185185163494</v>
@@ -1640,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D7">
         <v>62.3185185163494</v>
@@ -1654,10 +1738,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D8">
         <v>62.3185185163494</v>
@@ -1668,10 +1752,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D9">
         <v>62.3185185163494</v>
@@ -1682,10 +1766,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D10">
         <v>62.3185185163494</v>
@@ -1712,46 +1796,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1762,31 +1846,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>61.16590711741475</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>65.96384986687252</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>61.21822976233301</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J2">
         <v>65.74288342382255</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L2">
         <v>64.14461467256081</v>
@@ -1800,25 +1884,25 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>61.16590711741475</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>65.96384986687252</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H3">
         <v>64.74457393037193</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>64.78597081263268</v>
@@ -1832,25 +1916,25 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>61.16590711741475</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F4">
         <v>65.96384986687252</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H4">
         <v>65.02608910662099</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J4">
         <v>61.74033218325854</v>
@@ -1864,25 +1948,25 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>61.16590711741475</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>65.96384986687252</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H5">
         <v>64.92337028205594</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J5">
         <v>65.12396206685594</v>
@@ -1896,43 +1980,43 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>61.16590711741475</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>65.96384986687252</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H6">
         <v>64.8415874819122</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J6">
         <v>58.37889325194539</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L6">
         <v>65.41545464621163</v>
       </c>
       <c r="M6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N6">
         <v>64.1140872132674</v>
       </c>
       <c r="O6" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P6">
         <v>62.75885207959993</v>
@@ -1946,25 +2030,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>61.16590711741475</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F7">
         <v>65.96384986687252</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H7">
         <v>64.44375164616912</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>64.89768659828428</v>
@@ -1978,25 +2062,25 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>61.16590711741475</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F8">
         <v>65.96384986687252</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H8">
         <v>65.40702009302714</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J8">
         <v>58.31605672573471</v>
@@ -2010,25 +2094,25 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>61.16590711741475</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>65.96384986687252</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H9">
         <v>59.06550446538768</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J9">
         <v>64.75610972804407</v>
@@ -2042,25 +2126,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>61.16590711741475</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <v>65.96384986687252</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>61.48881682687846</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J10">
         <v>64.35166066214509</v>
@@ -2087,46 +2171,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2137,25 +2221,25 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>57.3651846291707</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F2">
         <v>64.92306747221159</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H2">
         <v>64.74457393037193</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="J2">
         <v>64.78597081263268</v>
@@ -2169,25 +2253,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D3">
         <v>63.3812861436196</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>60.88051506593223</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H3">
         <v>65.40702009302714</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J3">
         <v>58.31605672573471</v>
@@ -2201,25 +2285,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D4">
         <v>62.93038493198372</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>65.14584171422513</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>61.48881682687846</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J4">
         <v>64.35166066214509</v>
@@ -2233,25 +2317,25 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D5">
         <v>60.09312810356755</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F5">
         <v>65.75879292443648</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H5">
         <v>59.06550446538768</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J5">
         <v>64.75610972804407</v>
@@ -2265,25 +2349,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D6">
         <v>64.02088887225722</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>64.31358443072048</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>64.44375164616912</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J6">
         <v>64.89768659828428</v>
@@ -2297,25 +2381,25 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>60.8847039890224</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <v>64.14139165447284</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H7">
         <v>64.92337028205594</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="J7">
         <v>65.12396206685594</v>
@@ -2329,25 +2413,25 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D8">
         <v>61.89943671198756</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F8">
         <v>64.77108646591313</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>65.02608910662099</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J8">
         <v>61.74033218325854</v>
@@ -2361,31 +2445,31 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D9">
         <v>64.72672371259466</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F9">
         <v>65.71824808498394</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>61.21822976233301</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>65.74288342382255</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L9">
         <v>64.14461467256081</v>
@@ -2399,43 +2483,43 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D10">
         <v>61.7720628213965</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>64.06944111481556</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H10">
         <v>64.8415874819122</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>58.37889325194539</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10">
         <v>65.41545464621163</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="N10">
         <v>64.1140872132674</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P10">
         <v>62.75885207959993</v>
